--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_08_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_08_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Day after day guarding the village gradually wears on Lava, Mr.Nothing, and Kroos. But Dawn reveals some useful information: the Ink Spirits also fear firecrackers.
+    <t xml:space="preserve">Day after day guarding the village gradually wears on Lava, Mr. Nothing, and Kroos. But Dawn reveals some useful information: the Ink Spirits also fear firecrackers.
 </t>
   </si>
   <si>
